--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H2">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N2">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O2">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P2">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q2">
-        <v>0.1231168625868889</v>
+        <v>0.001919894946666666</v>
       </c>
       <c r="R2">
-        <v>1.108051763282</v>
+        <v>0.01727905452</v>
       </c>
       <c r="S2">
-        <v>0.0004261219973798753</v>
+        <v>6.987572121695564E-06</v>
       </c>
       <c r="T2">
-        <v>0.0004261219973798753</v>
+        <v>6.987572121695566E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H3">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q3">
-        <v>11.89561951379144</v>
+        <v>0.8051812151191111</v>
       </c>
       <c r="R3">
-        <v>107.060575624123</v>
+        <v>7.246630936072</v>
       </c>
       <c r="S3">
-        <v>0.0411721436103883</v>
+        <v>0.002930505036980076</v>
       </c>
       <c r="T3">
-        <v>0.0411721436103883</v>
+        <v>0.002930505036980076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H4">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P4">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q4">
-        <v>1.017415362694556</v>
+        <v>0.06886600038488888</v>
       </c>
       <c r="R4">
-        <v>9.156738264251</v>
+        <v>0.6197940034639999</v>
       </c>
       <c r="S4">
-        <v>0.003521394692870803</v>
+        <v>0.0002506419141618132</v>
       </c>
       <c r="T4">
-        <v>0.003521394692870803</v>
+        <v>0.0002506419141618133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N5">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O5">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P5">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q5">
-        <v>0.04171141625666666</v>
+        <v>0.009609665974999999</v>
       </c>
       <c r="R5">
-        <v>0.3754027463099999</v>
+        <v>0.08648699377499999</v>
       </c>
       <c r="S5">
-        <v>0.000144368136381726</v>
+        <v>3.497495224012105E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001443681363817261</v>
+        <v>3.497495224012106E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q6">
         <v>4.030180161718333</v>
@@ -818,10 +818,10 @@
         <v>36.271621455465</v>
       </c>
       <c r="S6">
-        <v>0.01394892936863265</v>
+        <v>0.01466808097616338</v>
       </c>
       <c r="T6">
-        <v>0.01394892936863265</v>
+        <v>0.01466808097616338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P7">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q7">
         <v>0.3446955584116667</v>
       </c>
       <c r="R7">
-        <v>3.102260025705001</v>
+        <v>3.102260025705</v>
       </c>
       <c r="S7">
-        <v>0.001193032024631798</v>
+        <v>0.00125454003543863</v>
       </c>
       <c r="T7">
-        <v>0.001193032024631798</v>
+        <v>0.00125454003543863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>43.758776</v>
       </c>
       <c r="I8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N8">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O8">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P8">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q8">
-        <v>2.563846134184888</v>
+        <v>0.5906705447066666</v>
       </c>
       <c r="R8">
-        <v>23.074615207664</v>
+        <v>5.316034902359999</v>
       </c>
       <c r="S8">
-        <v>0.008873774174536848</v>
+        <v>0.002149780662981052</v>
       </c>
       <c r="T8">
-        <v>0.008873774174536849</v>
+        <v>0.002149780662981052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.758776</v>
       </c>
       <c r="I9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>50.949371</v>
       </c>
       <c r="O9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q9">
         <v>247.7202347699885</v>
@@ -1004,10 +1004,10 @@
         <v>2229.482112929896</v>
       </c>
       <c r="S9">
-        <v>0.8573889799790955</v>
+        <v>0.9015925634180975</v>
       </c>
       <c r="T9">
-        <v>0.8573889799790955</v>
+        <v>0.9015925634180975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.758776</v>
       </c>
       <c r="I10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N10">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O10">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P10">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q10">
         <v>21.18715819828356</v>
@@ -1066,10 +1066,10 @@
         <v>190.684423784552</v>
       </c>
       <c r="S10">
-        <v>0.07333125601608244</v>
+        <v>0.07711192543181571</v>
       </c>
       <c r="T10">
-        <v>0.07333125601608245</v>
+        <v>0.07711192543181572</v>
       </c>
     </row>
   </sheetData>
